--- a/Python/PIP_GEN_id-0/Parts - Consoles.csv.xlsx
+++ b/Python/PIP_GEN_id-0/Parts - Consoles.csv.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>RecordID</t>
   </si>
@@ -174,6 +174,9 @@
     <t>Updated</t>
   </si>
   <si>
+    <t>Created</t>
+  </si>
+  <si>
     <t>385843</t>
   </si>
   <si>
@@ -186,7 +189,8 @@
     <t>NO_DISPLAY</t>
   </si>
   <si>
-    <t xml:space="preserve">Connect the power cord to the EQF1259. 
+    <t xml:space="preserve">“将电源线连接到EQF1259，将EQW1001的一端连接到EQF1259（TRED1）。注意：请确保您选择与控制台类型相匹配的正确端口。将地线（绿色）连接到E-GND EQF 1259.设置夹具配置：使用PC，在控制台名称（例如：... RNDFtp \ EBNT02117 \ Procedure）下载入RNDftp中的.xml配置文件到microSD卡，将microSD卡正面朝上插入microSD打开灯具背面的RESET按钮，使用UP和DOWN按钮找到合适的配置文件，按ENTER键选择配置文件（屏幕1），等待5秒钟，屏幕稳定后设置灯具脉冲：按下EQF1259 2x上的显示按下此灯具上的开始使用上下按钮设置一个随机脉冲，按下灯具上的开始，按下显示一次。
+Connect the power cord to the EQF1259. 
 Connect one end of the EQW1001 to EQF1259 (TRED1). NOTE: MAKE SURE YOU SELECT THE CORRECT PORT THAT MATCH THE TYPE OF THE CONSOLE.   
 Connect the ground wire (Green) to E-GND on EQF 1259. 
 Set Fixture Configurations:
@@ -205,32 +209,49 @@
 </t>
   </si>
   <si>
-    <t>Verify that the ESD bag is dissipative and it is printed on as per the drawing.</t>
-  </si>
-  <si>
-    <t>Verify that the General Warning is printed on the console or pulse bar.</t>
-  </si>
-  <si>
-    <t>Ensure the unit is packaged in an antistatic bag. 
+    <t>确认防静电包装袋已经耗尽，并按照图纸进行打印。
+Verify that the ESD bag is dissipative and it is printed on as per the drawing.</t>
+  </si>
+  <si>
+    <t>验证是否在控制台或脉冲条上打印了常规警告。
+Verify that the General Warning is printed on the console or pulse bar.</t>
+  </si>
+  <si>
+    <t>检查控制台是否与图片一致如果数位板倾斜，验证倾斜是否平稳移动，保持位置，并旋转全程。
+Ensure the unit is packaged in an antistatic bag. 
 Visually inspect the console for cosmetic defects, physical damage, and illegible printing.  
 Verify console matches picture
 If tablet has tilt, verify tilt  is smooth moving, holds position, and rotates through full range.</t>
   </si>
   <si>
-    <t>Connect the 8-pin MTA to console. On the EQF1259, turn on the Console power switch.</t>
-  </si>
-  <si>
-    <t>Insert Dead Man Key into console.</t>
-  </si>
-  <si>
-    <t>Touch user profile icon at the lower right  of the screen
+    <t>将8针MTA连接到控制台。在EQF1259上，打开控制台电源开关。
+Connect the 8-pin MTA to console. On the EQF1259, turn on the Console power switch.</t>
+  </si>
+  <si>
+    <t>将死者的钥匙插入控制台。
+Insert Dead Man Key into console.</t>
+  </si>
+  <si>
+    <t>触摸屏幕右下方的用户个人资料图标
+触摸设置
+触摸“设备信息”，然后点击“应用程序信息”。 这将显示应用程序版本和Brainboard版本。
+验证和记录。
+按下数位板上的后退箭头返回到主屏幕
+Touch user profile icon at the lower right  of the screen
 Touch settings
 Touch “Equipment Info” and then “App Info”. This will display App version and Brainboard version.
 Verify and Record.
 Press the back arrow on the tablet to return to main screen</t>
   </si>
   <si>
-    <t>Touch the user profile icon on lower right of the screen
+    <t>触摸屏幕右下方的用户配置文件图标
+触摸设置
+触摸维护
+选择校准倾斜
+在EQF1259上按Calibrate
+按开始在平板电脑上开始倾斜校准。 确认显示屏上的倾斜值短暂增加，暂停，然后减小到零
+校准完成后，按下数位板上的后退箭头返回主屏幕“
+Touch the user profile icon on lower right of the screen
 Touch Settings
 Touch Maintainance
 Select Calibrate Incline
@@ -239,49 +260,71 @@
 When calibration is complete, press the back arrow on the tablet to return to main screen</t>
   </si>
   <si>
-    <t>Verify tablet display is lit and without flaws</t>
-  </si>
-  <si>
-    <t>On the console, press random Quick speed buttons.
+    <t>验证平板电脑显示屏是否亮起且没有缺陷
+Verify tablet display is lit and without flaws</t>
+  </si>
+  <si>
+    <t>“在控制台上，按随机快速按钮。
+验证控制台上的速度和EQF1259匹配。“
+On the console, press random Quick speed buttons.
 Verify that the Speed on the console and EQF1259 match.</t>
   </si>
   <si>
-    <t>On the console, press random Quick incline buttons.
+    <t>“在控制台上，按随机快速倾斜按钮。
+验证控制台上的倾斜和EQF1259匹配。“
+On the console, press random Quick incline buttons.
 Verify that the Incline on the console and EQF1259 match.</t>
   </si>
   <si>
-    <t>Plug USB cable from EQF1259 into console and verify "USB" is displayed on the EQF1259.</t>
-  </si>
-  <si>
-    <t>Hold the pulse bars and verify a pulse reading is displayed</t>
-  </si>
-  <si>
-    <t>Press Display button to goto BLE Pulse screen.
+    <t>将EQF1259的USB电缆插入控制台，并确认EQF1259上显示“USB”。
+Plug USB cable from EQF1259 into console and verify "USB" is displayed on the EQF1259.</t>
+  </si>
+  <si>
+    <t>保持脉冲条并确认显示脉冲读数
+Hold the pulse bars and verify a pulse reading is displayed</t>
+  </si>
+  <si>
+    <t>按显示按钮，进入BLE脉冲屏幕。
+按开始按钮。
+在控制台上运行手动锻炼。
+验证在控制台上读取脉冲BLE脉冲。“
+Press Display button to goto BLE Pulse screen.
 Press Start button.
 Run manual workout on the console.
 Verify pulse BLE pulse is read on console.</t>
   </si>
   <si>
-    <t>Connect the 3-pin fans to the console.
+    <t>“将3针风扇连接到控制台。
+在控制台上，按大风扇按钮打开风扇。 球迷应该跑低。
+再次按大风扇按钮，风扇应该运行在高位。
+按小风扇按钮将风扇转到低位，然后再次按下以关闭风扇。“
+Connect the 3-pin fans to the console.
 On the console, press the Large Fan button to turn fan on. Fan should run on low.
 Press the Large Fan button again and the fan should run on high.
 Press the Small Fan button to turn fan to low, then press again to turn fan off.</t>
   </si>
   <si>
-    <t>Connect the EQW1007 to the iOS audio source and connect the other end of the EQW1007 to the console.
+    <t>“将EQW1007连接到iOS音频源，并将EQW1007的另一端连接到控制台。
+播放音频并验证它是否从控制台扬声器播放。
+调整音量到最低和最高水平，并验证一个变化。“
+Connect the EQW1007 to the iOS audio source and connect the other end of the EQW1007 to the console.
 Play audio and verify that it plays out of the console speakers.
 Adjust the volume to minimum and maximum level and verify a change.</t>
   </si>
   <si>
-    <t>Connect the HDMI cable to the TV.
+    <t>“将HDMI电缆连接到电视机。
+将HDMI电缆连接到控制台，控制台屏幕和声音将在电视上镜像。“
+Connect the HDMI cable to the TV.
 Connect the HDMI cable to the console and the console screen and sound will be mirrored on the TV.</t>
   </si>
   <si>
-    <t>On the EQF1259, turn off the Console power.
+    <t>“在EQF1259上，关闭控制台电源。
+断开控制台上的所有电线和电缆。“
+On the EQF1259, turn off the Console power.
 Disconnect all wires and cables from the console.</t>
   </si>
   <si>
-    <t>PIP_GEN_ID-0</t>
+    <t>PIP_GEN_id-0</t>
   </si>
   <si>
     <t>REV 0</t>
@@ -339,6 +382,15 @@
   </si>
   <si>
     <t>Killed trackvia full table</t>
+  </si>
+  <si>
+    <t>REV 6</t>
+  </si>
+  <si>
+    <t>20180123</t>
+  </si>
+  <si>
+    <t>Added chinese and auto launch for PIP</t>
   </si>
   <si>
     <t>REV</t>
@@ -686,7 +738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ2"/>
+  <dimension ref="A1:BA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,9 +798,10 @@
     <col customWidth="1" max="50" min="50" width="100"/>
     <col customWidth="1" max="51" min="51" width="100"/>
     <col customWidth="1" max="52" min="52" width="100"/>
+    <col customWidth="1" max="53" min="53" width="100"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:53">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -905,79 +958,82 @@
       <c r="AZ1" t="s">
         <v>51</v>
       </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:53">
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AW2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AZ2" s="2" t="n">
-        <v>43123.427066875</v>
+      <c r="AY2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA2" s="2" t="n">
+        <v>43123.71864396991</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +1047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,100 +1063,114 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
         <v>79</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>43123.42695996528</v>
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>43123.71859715278</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Python/PIP_GEN_id-0/Parts - Consoles.csv.xlsx
+++ b/Python/PIP_GEN_id-0/Parts - Consoles.csv.xlsx
@@ -1033,7 +1033,7 @@
         <v>75</v>
       </c>
       <c r="BA2" s="2" t="n">
-        <v>43123.71864396991</v>
+        <v>43124.50381199074</v>
       </c>
     </row>
   </sheetData>
@@ -1164,7 +1164,7 @@
         <v>98</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43123.71859715278</v>
+        <v>43124.50379405093</v>
       </c>
       <c r="C8" t="s">
         <v>99</v>

--- a/Python/PIP_GEN_id-0/Parts - Consoles.csv.xlsx
+++ b/Python/PIP_GEN_id-0/Parts - Consoles.csv.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>RecordID</t>
   </si>
@@ -177,16 +177,16 @@
     <t>Created</t>
   </si>
   <si>
-    <t>385843</t>
-  </si>
-  <si>
-    <t>ETNT22116</t>
+    <t>385661</t>
+  </si>
+  <si>
+    <t>ETPF49616</t>
   </si>
   <si>
     <t>TREADMILL_DEVICE</t>
   </si>
   <si>
-    <t>NO_DISPLAY</t>
+    <t>PM210_DISPLAY_PAUL_REED_SMITH</t>
   </si>
   <si>
     <t xml:space="preserve">“将电源线连接到EQF1259，将EQW1001的一端连接到EQF1259（TRED1）。注意：请确保您选择与控制台类型相匹配的正确端口。将地线（绿色）连接到E-GND EQF 1259.设置夹具配置：使用PC，在控制台名称（例如：... RNDFtp \ EBNT02117 \ Procedure）下载入RNDftp中的.xml配置文件到microSD卡，将microSD卡正面朝上插入microSD打开灯具背面的RESET按钮，使用UP和DOWN按钮找到合适的配置文件，按ENTER键选择配置文件（屏幕1），等待5秒钟，屏幕稳定后设置灯具脉冲：按下EQF1259 2x上的显示按下此灯具上的开始使用上下按钮设置一个随机脉冲，按下灯具上的开始，按下显示一次。
@@ -217,11 +217,11 @@
 Verify that the General Warning is printed on the console or pulse bar.</t>
   </si>
   <si>
-    <t>检查控制台是否与图片一致如果数位板倾斜，验证倾斜是否平稳移动，保持位置，并旋转全程。
+    <t xml:space="preserve">“确保设备包装在防静电袋中，目视检查控制台是否有化妆品缺陷，物理损坏和不清晰的打印。
 Ensure the unit is packaged in an antistatic bag. 
 Visually inspect the console for cosmetic defects, physical damage, and illegible printing.  
 Verify console matches picture
-If tablet has tilt, verify tilt  is smooth moving, holds position, and rotates through full range.</t>
+</t>
   </si>
   <si>
     <t>将8针MTA连接到控制台。在EQF1259上，打开控制台电源开关。
@@ -232,36 +232,49 @@
 Insert Dead Man Key into console.</t>
   </si>
   <si>
-    <t>触摸屏幕右下方的用户个人资料图标
-触摸设置
-触摸“设备信息”，然后点击“应用程序信息”。 这将显示应用程序版本和Brainboard版本。
-验证和记录。
-按下数位板上的后退箭头返回到主屏幕
-Touch user profile icon at the lower right  of the screen
-Touch settings
-Touch “Equipment Info” and then “App Info”. This will display App version and Brainboard version.
-Verify and Record.
-Press the back arrow on the tablet to return to main screen</t>
-  </si>
-  <si>
-    <t>触摸屏幕右下方的用户配置文件图标
-触摸设置
-触摸维护
-选择校准倾斜
-在EQF1259上按Calibrate
-按开始在平板电脑上开始倾斜校准。 确认显示屏上的倾斜值短暂增加，暂停，然后减小到零
-校准完成后，按下数位板上的后退箭头返回主屏幕“
-Touch the user profile icon on lower right of the screen
-Touch Settings
-Touch Maintainance
-Select Calibrate Incline
-Press Calibrate on EQF1259
-Press Begin on tablet to start incline calibration.  Verify the incline value on the display increases briefly, pauses, then decrease to zero
-When calibration is complete, press the back arrow on the tablet to return to main screen</t>
-  </si>
-  <si>
-    <t>验证平板电脑显示屏是否亮起且没有缺陷
-Verify tablet display is lit and without flaws</t>
+    <t xml:space="preserve">“按iFIT同步按钮，在显示屏中间验证一个4字符的十六进制（例如：”DF69“）。点击平板电脑屏幕右上方的蓝牙图标在弹出的窗口中，点击您的机器选择并验证信号点击“确定”，平板显示器右上方的蓝牙图标将闪烁，然后变为蓝色，控制台将显示连接指示灯，点击右上角的蓝牙图标平板电脑屏幕和“UNPAIR”控制台。
+Press the iFIT sync button and verify a 4 character Hex in the middle of the display (Example: “DF69”). 
+Tap the Bluetooth icon on the top right of tablet screen
+In the pop up window, tap your machine choice and verify signal strength at 0.5m is (&gt;50%)
+Tap “OKAY”. The Bluetooth icon in the upper right of the tablet display will blink and then go solid blue. The console will show connection indicator.
+Tap the Bluetooth icon on the upper right on tablet screen and “UNPAIR” the console.
+</t>
+  </si>
+  <si>
+    <t>“按住停止按钮，同时移除并重新插入安全钥匙。
+验证并记录软件版本“
+Press and hold the Stop button while removing and re inserting the safety key.
+Verify and record software version</t>
+  </si>
+  <si>
+    <t>“按住停止按钮，同时移除并重新插入安全钥匙。
+按下停止按钮。
+按校准按钮EQF1259
+按向上倾斜箭头以校准倾斜。 确认显示屏上的倾斜值暂时增加，暂停，然后减小到零。
+Press and hold the Stop button while removing and re inserting the safety key.
+Press the Stop  button.
+Press the Calibrate buttton the EQF1259
+Press Incline up arrow to calibrate incline. Verify the incline value on the display increases briefly, pauses, then decrease to zero.</t>
+  </si>
+  <si>
+    <t>“按住停止按钮，同时移除并重新插入安全钥匙。
+按两次停止按钮
+按向上倾斜箭头空白并填充显示
+确认没有LCD段应该是暗淡的，丢失，重影，发光或熄灭。“
+Press and hold the Stop button while removing and re inserting the safety key.
+Press the Stop  button two times
+Press Incline up arrow to blank and fill display
+Verify that there are no LCD segments should be dim, missing, ghosting, aglow, or out.</t>
+  </si>
+  <si>
+    <t>“按住停止按钮，同时移除并重新插入安全钥匙。
+按下停止按钮三次
+按控制台上的所有按钮，每个按钮都将显示一个唯一的代码
+按停止返回主屏幕“
+Press and hold the Stop button while removing and re inserting the safety key.
+Press the Stop  button three times
+Press all the buttons on the console and each will display a unique code
+Press Stop to  return to main screen</t>
   </si>
   <si>
     <t>“在控制台上，按随机快速按钮。
@@ -276,46 +289,32 @@
 Verify that the Incline on the console and EQF1259 match.</t>
   </si>
   <si>
-    <t>将EQF1259的USB电缆插入控制台，并确认EQF1259上显示“USB”。
-Plug USB cable from EQF1259 into console and verify "USB" is displayed on the EQF1259.</t>
-  </si>
-  <si>
     <t>保持脉冲条并确认显示脉冲读数
 Hold the pulse bars and verify a pulse reading is displayed</t>
   </si>
   <si>
-    <t>按显示按钮，进入BLE脉冲屏幕。
+    <t>按显示按钮转到BLE脉冲屏幕。
 按开始按钮。
-在控制台上运行手动锻炼。
-验证在控制台上读取脉冲BLE脉冲。“
+点击控制台上的IFIT同步按钮。
+验证在控制台上读取脉冲BLE脉冲。
 Press Display button to goto BLE Pulse screen.
 Press Start button.
-Run manual workout on the console.
+Tap the IFIT sync button on the console.
 Verify pulse BLE pulse is read on console.</t>
   </si>
   <si>
-    <t>“将3针风扇连接到控制台。
-在控制台上，按大风扇按钮打开风扇。 球迷应该跑低。
-再次按大风扇按钮，风扇应该运行在高位。
-按小风扇按钮将风扇转到低位，然后再次按下以关闭风扇。“
-Connect the 3-pin fans to the console.
-On the console, press the Large Fan button to turn fan on. Fan should run on low.
-Press the Large Fan button again and the fan should run on high.
-Press the Small Fan button to turn fan to low, then press again to turn fan off.</t>
-  </si>
-  <si>
-    <t>“将EQW1007连接到iOS音频源，并将EQW1007的另一端连接到控制台。
-播放音频并验证它是否从控制台扬声器播放。
-调整音量到最低和最高水平，并验证一个变化。“
-Connect the EQW1007 to the iOS audio source and connect the other end of the EQW1007 to the console.
-Play audio and verify that it plays out of the console speakers.
-Adjust the volume to minimum and maximum level and verify a change.</t>
-  </si>
-  <si>
-    <t>“将HDMI电缆连接到电视机。
-将HDMI电缆连接到控制台，控制台屏幕和声音将在电视上镜像。“
-Connect the HDMI cable to the TV.
-Connect the HDMI cable to the console and the console screen and sound will be mirrored on the TV.</t>
+    <t>“将EQF1007的一端连接到音频源，另一端连接到MYE音频发射器
+开启MYE音频发射器并播放音频源
+将耳机连接到控制台
+将MYE音频接收器连接到控制台背面的RJ45电缆
+音频源将通过耳机播放
+调节音量，耳机音频将反映变化“
+Connect one end of EQF1007 to audio source and the other end to MYE audio transmitter
+Power up MYE audio transmitter and play audio source
+Connect headphones to console
+Connect MYE audio receiver to RJ45 cable on the back of console
+Audio source will play through the headphones
+Adjust volume and the headphone audio will reflect change</t>
   </si>
   <si>
     <t>“在EQF1259上，关闭控制台电源。
@@ -993,47 +992,44 @@
       <c r="AA2" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="AB2" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AE2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS2" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AY2" t="s">
         <v>74</v>
       </c>
-      <c r="AY2" t="s">
-        <v>75</v>
-      </c>
       <c r="BA2" s="2" t="n">
-        <v>43124.50381199074</v>
+        <v>43125.71677831018</v>
       </c>
     </row>
   </sheetData>
@@ -1063,114 +1059,114 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>78</v>
-      </c>
-      <c r="D1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>81</v>
       </c>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>84</v>
       </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
         <v>86</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
         <v>89</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>90</v>
       </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
         <v>92</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
         <v>95</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>96</v>
       </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>43125.71664103009</v>
+      </c>
+      <c r="C8" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>43124.50379405093</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Python/PIP_GEN_id-0/Parts - Consoles.csv.xlsx
+++ b/Python/PIP_GEN_id-0/Parts - Consoles.csv.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>RecordID</t>
   </si>
@@ -177,16 +177,26 @@
     <t>Created</t>
   </si>
   <si>
-    <t>385661</t>
-  </si>
-  <si>
-    <t>ETPF49616</t>
+    <t>385843</t>
+  </si>
+  <si>
+    <t>ETNT22116</t>
   </si>
   <si>
     <t>TREADMILL_DEVICE</t>
   </si>
   <si>
-    <t>PM210_DISPLAY_PAUL_REED_SMITH</t>
+    <t>NO_DISPLAY</t>
+  </si>
+  <si>
+    <t>“EQF1259控制台夹具
+PC w /访问RNDftp
+MicroSD卡“
+EQW1067; 5针线束
+EQF1259 Console Fixture
+PC w/ Access to RNDftp
+MicroSD Card
+EQW1067; 5-pin harness</t>
   </si>
   <si>
     <t xml:space="preserve">“将电源线连接到EQF1259，将EQW1001的一端连接到EQF1259（TRED1）。注意：请确保您选择与控制台类型相匹配的正确端口。将地线（绿色）连接到E-GND EQF 1259.设置夹具配置：使用PC，在控制台名称（例如：... RNDFtp \ EBNT02117 \ Procedure）下载入RNDftp中的.xml配置文件到microSD卡，将microSD卡正面朝上插入microSD打开灯具背面的RESET按钮，使用UP和DOWN按钮找到合适的配置文件，按ENTER键选择配置文件（屏幕1），等待5秒钟，屏幕稳定后设置灯具脉冲：按下EQF1259 2x上的显示按下此灯具上的开始使用上下按钮设置一个随机脉冲，按下灯具上的开始，按下显示一次。
@@ -217,11 +227,11 @@
 Verify that the General Warning is printed on the console or pulse bar.</t>
   </si>
   <si>
-    <t xml:space="preserve">“确保设备包装在防静电袋中，目视检查控制台是否有化妆品缺陷，物理损坏和不清晰的打印。
+    <t>检查控制台是否与图片一致如果数位板倾斜，验证倾斜是否平稳移动，保持位置，并旋转全程。
 Ensure the unit is packaged in an antistatic bag. 
 Visually inspect the console for cosmetic defects, physical damage, and illegible printing.  
 Verify console matches picture
-</t>
+If tablet has tilt, verify tilt  is smooth moving, holds position, and rotates through full range.</t>
   </si>
   <si>
     <t>将8针MTA连接到控制台。在EQF1259上，打开控制台电源开关。
@@ -232,49 +242,36 @@
 Insert Dead Man Key into console.</t>
   </si>
   <si>
-    <t xml:space="preserve">“按iFIT同步按钮，在显示屏中间验证一个4字符的十六进制（例如：”DF69“）。点击平板电脑屏幕右上方的蓝牙图标在弹出的窗口中，点击您的机器选择并验证信号点击“确定”，平板显示器右上方的蓝牙图标将闪烁，然后变为蓝色，控制台将显示连接指示灯，点击右上角的蓝牙图标平板电脑屏幕和“UNPAIR”控制台。
-Press the iFIT sync button and verify a 4 character Hex in the middle of the display (Example: “DF69”). 
-Tap the Bluetooth icon on the top right of tablet screen
-In the pop up window, tap your machine choice and verify signal strength at 0.5m is (&gt;50%)
-Tap “OKAY”. The Bluetooth icon in the upper right of the tablet display will blink and then go solid blue. The console will show connection indicator.
-Tap the Bluetooth icon on the upper right on tablet screen and “UNPAIR” the console.
-</t>
-  </si>
-  <si>
-    <t>“按住停止按钮，同时移除并重新插入安全钥匙。
-验证并记录软件版本“
-Press and hold the Stop button while removing and re inserting the safety key.
-Verify and record software version</t>
-  </si>
-  <si>
-    <t>“按住停止按钮，同时移除并重新插入安全钥匙。
-按下停止按钮。
-按校准按钮EQF1259
-按向上倾斜箭头以校准倾斜。 确认显示屏上的倾斜值暂时增加，暂停，然后减小到零。
-Press and hold the Stop button while removing and re inserting the safety key.
-Press the Stop  button.
-Press the Calibrate buttton the EQF1259
-Press Incline up arrow to calibrate incline. Verify the incline value on the display increases briefly, pauses, then decrease to zero.</t>
-  </si>
-  <si>
-    <t>“按住停止按钮，同时移除并重新插入安全钥匙。
-按两次停止按钮
-按向上倾斜箭头空白并填充显示
-确认没有LCD段应该是暗淡的，丢失，重影，发光或熄灭。“
-Press and hold the Stop button while removing and re inserting the safety key.
-Press the Stop  button two times
-Press Incline up arrow to blank and fill display
-Verify that there are no LCD segments should be dim, missing, ghosting, aglow, or out.</t>
-  </si>
-  <si>
-    <t>“按住停止按钮，同时移除并重新插入安全钥匙。
-按下停止按钮三次
-按控制台上的所有按钮，每个按钮都将显示一个唯一的代码
-按停止返回主屏幕“
-Press and hold the Stop button while removing and re inserting the safety key.
-Press the Stop  button three times
-Press all the buttons on the console and each will display a unique code
-Press Stop to  return to main screen</t>
+    <t>触摸屏幕右下方的用户个人资料图标
+触摸设置
+触摸“设备信息”，然后点击“应用程序信息”。 这将显示应用程序版本和Brainboard版本。
+验证和记录。
+按下数位板上的后退箭头返回到主屏幕
+Touch user profile icon at the lower right  of the screen
+Touch settings
+Touch “Equipment Info” and then “App Info”. This will display App version and Brainboard version.
+Verify and Record.
+Press the back arrow on the tablet to return to main screen</t>
+  </si>
+  <si>
+    <t>触摸屏幕右下方的用户配置文件图标
+触摸设置
+触摸维护
+选择校准倾斜
+在EQF1259上按Calibrate
+按开始在平板电脑上开始倾斜校准。 确认显示屏上的倾斜值短暂增加，暂停，然后减小到零
+校准完成后，按下数位板上的后退箭头返回主屏幕“
+Touch the user profile icon on lower right of the screen
+Touch Settings
+Touch Maintainance
+Select Calibrate Incline
+Press Calibrate on EQF1259
+Press Begin on tablet to start incline calibration.  Verify the incline value on the display increases briefly, pauses, then decrease to zero
+When calibration is complete, press the back arrow on the tablet to return to main screen</t>
+  </si>
+  <si>
+    <t>验证平板电脑显示屏是否亮起且没有缺陷
+Verify tablet display is lit and without flaws</t>
   </si>
   <si>
     <t>“在控制台上，按随机快速按钮。
@@ -289,32 +286,46 @@
 Verify that the Incline on the console and EQF1259 match.</t>
   </si>
   <si>
+    <t>将EQF1259的USB电缆插入控制台，并确认EQF1259上显示“USB”。
+Plug USB cable from EQF1259 into console and verify "USB" is displayed on the EQF1259.</t>
+  </si>
+  <si>
     <t>保持脉冲条并确认显示脉冲读数
 Hold the pulse bars and verify a pulse reading is displayed</t>
   </si>
   <si>
-    <t>按显示按钮转到BLE脉冲屏幕。
+    <t>按显示按钮，进入BLE脉冲屏幕。
 按开始按钮。
-点击控制台上的IFIT同步按钮。
-验证在控制台上读取脉冲BLE脉冲。
+在控制台上运行手动锻炼。
+验证在控制台上读取脉冲BLE脉冲。“
 Press Display button to goto BLE Pulse screen.
 Press Start button.
-Tap the IFIT sync button on the console.
+Run manual workout on the console.
 Verify pulse BLE pulse is read on console.</t>
   </si>
   <si>
-    <t>“将EQF1007的一端连接到音频源，另一端连接到MYE音频发射器
-开启MYE音频发射器并播放音频源
-将耳机连接到控制台
-将MYE音频接收器连接到控制台背面的RJ45电缆
-音频源将通过耳机播放
-调节音量，耳机音频将反映变化“
-Connect one end of EQF1007 to audio source and the other end to MYE audio transmitter
-Power up MYE audio transmitter and play audio source
-Connect headphones to console
-Connect MYE audio receiver to RJ45 cable on the back of console
-Audio source will play through the headphones
-Adjust volume and the headphone audio will reflect change</t>
+    <t>“将3针风扇连接到控制台。
+在控制台上，按大风扇按钮打开风扇。 球迷应该跑低。
+再次按大风扇按钮，风扇应该运行在高位。
+按小风扇按钮将风扇转到低位，然后再次按下以关闭风扇。“
+Connect the 3-pin fans to the console.
+On the console, press the Large Fan button to turn fan on. Fan should run on low.
+Press the Large Fan button again and the fan should run on high.
+Press the Small Fan button to turn fan to low, then press again to turn fan off.</t>
+  </si>
+  <si>
+    <t>“将EQW1007连接到iOS音频源，并将EQW1007的另一端连接到控制台。
+播放音频并验证它是否从控制台扬声器播放。
+调整音量到最低和最高水平，并验证一个变化。“
+Connect the EQW1007 to the iOS audio source and connect the other end of the EQW1007 to the console.
+Play audio and verify that it plays out of the console speakers.
+Adjust the volume to minimum and maximum level and verify a change.</t>
+  </si>
+  <si>
+    <t>“将HDMI电缆连接到电视机。
+将HDMI电缆连接到控制台，控制台屏幕和声音将在电视上镜像。“
+Connect the HDMI cable to the TV.
+Connect the HDMI cable to the console and the console screen and sound will be mirrored on the TV.</t>
   </si>
   <si>
     <t>“在EQF1259上，关闭控制台电源。
@@ -974,25 +985,25 @@
       <c r="G2" t="s">
         <v>56</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AE2" s="1" t="s">
@@ -1004,13 +1015,13 @@
       <c r="AH2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AQ2" s="1" t="s">
@@ -1019,17 +1030,23 @@
       <c r="AR2" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="AS2" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="AT2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AY2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BA2" s="2" t="n">
-        <v>43125.71677831018</v>
+        <v>43143.74092048611</v>
       </c>
     </row>
   </sheetData>
@@ -1059,114 +1076,114 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43125.71664103009</v>
+        <v>43143.74086167824</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Python/PIP_GEN_id-0/Parts - Consoles.csv.xlsx
+++ b/Python/PIP_GEN_id-0/Parts - Consoles.csv.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>RecordID</t>
   </si>
@@ -177,31 +177,21 @@
     <t>Created</t>
   </si>
   <si>
-    <t>385843</t>
-  </si>
-  <si>
-    <t>ETNT22116</t>
+    <t>387469</t>
+  </si>
+  <si>
+    <t>ETFM39817</t>
   </si>
   <si>
     <t>TREADMILL_DEVICE</t>
   </si>
   <si>
-    <t>NO_DISPLAY</t>
-  </si>
-  <si>
-    <t>“EQF1259控制台夹具
-PC w /访问RNDftp
-MicroSD卡“
-EQW1067; 5针线束
-EQF1259 Console Fixture
-PC w/ Access to RNDftp
-MicroSD Card
-EQW1067; 5-pin harness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“将电源线连接到EQF1259，将EQW1001的一端连接到EQF1259（TRED1）。注意：请确保您选择与控制台类型相匹配的正确端口。将地线（绿色）连接到E-GND EQF 1259.设置夹具配置：使用PC，在控制台名称（例如：... RNDFtp \ EBNT02117 \ Procedure）下载入RNDftp中的.xml配置文件到microSD卡，将microSD卡正面朝上插入microSD打开灯具背面的RESET按钮，使用UP和DOWN按钮找到合适的配置文件，按ENTER键选择配置文件（屏幕1），等待5秒钟，屏幕稳定后设置灯具脉冲：按下EQF1259 2x上的显示按下此灯具上的开始使用上下按钮设置一个随机脉冲，按下灯具上的开始，按下显示一次。
+    <t>FENDER_DISPLAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">将电源线连接到EQF1259，将EQW1053的一端连接到EQF1259（CLUB）。注意：请确保您选择与控制台类型相匹配的正确端口。将地线（绿色）连接到E-GND EQF 1259.设置夹具配置：使用PC，在控制台名称（例如：... RNDFtp \ EBNT02117 \ Procedure）下载入RNDftp中的.xml配置文件到microSD卡，将microSD卡正面朝上插入microSD打开灯具背面的RESET按钮，使用UP和DOWN按钮找到合适的配置文件，按ENTER键选择配置文件（屏幕1），等待5秒钟，屏幕稳定后设置灯具脉冲：按下EQF1259 2x上的显示按下此灯具上的开始使用上下按钮设置一个随机脉冲，按下灯具上的开始，按下显示一次。
 Connect the power cord to the EQF1259. 
-Connect one end of the EQW1001 to EQF1259 (TRED1). NOTE: MAKE SURE YOU SELECT THE CORRECT PORT THAT MATCH THE TYPE OF THE CONSOLE.   
+Connect one end of the EQW1053 to EQF1259 (CLUB). NOTE: MAKE SURE YOU SELECT THE CORRECT PORT THAT MATCH THE TYPE OF THE CONSOLE.   
 Connect the ground wire (Green) to E-GND on EQF 1259. 
 Set Fixture Configurations:
 Using PC, load .xml configuration file, which is found in the RNDftp under the console name (Example: …RNDFtp\EBNT02117\Procedure) to the microSD card.
@@ -227,51 +217,19 @@
 Verify that the General Warning is printed on the console or pulse bar.</t>
   </si>
   <si>
-    <t>检查控制台是否与图片一致如果数位板倾斜，验证倾斜是否平稳移动，保持位置，并旋转全程。
+    <t xml:space="preserve">“确保设备包装在防静电袋中，目视检查控制台是否有化妆品缺陷，物理损坏和不清晰的打印。
 Ensure the unit is packaged in an antistatic bag. 
 Visually inspect the console for cosmetic defects, physical damage, and illegible printing.  
 Verify console matches picture
-If tablet has tilt, verify tilt  is smooth moving, holds position, and rotates through full range.</t>
-  </si>
-  <si>
-    <t>将8针MTA连接到控制台。在EQF1259上，打开控制台电源开关。
-Connect the 8-pin MTA to console. On the EQF1259, turn on the Console power switch.</t>
+</t>
+  </si>
+  <si>
+    <t>将14针MTA连接到控制台。在EQF1259上，打开控制台电源开关。
+Connect the 14-pin MTA to console. On the EQF1259, turn on the Console power switch.</t>
   </si>
   <si>
     <t>将死者的钥匙插入控制台。
 Insert Dead Man Key into console.</t>
-  </si>
-  <si>
-    <t>触摸屏幕右下方的用户个人资料图标
-触摸设置
-触摸“设备信息”，然后点击“应用程序信息”。 这将显示应用程序版本和Brainboard版本。
-验证和记录。
-按下数位板上的后退箭头返回到主屏幕
-Touch user profile icon at the lower right  of the screen
-Touch settings
-Touch “Equipment Info” and then “App Info”. This will display App version and Brainboard version.
-Verify and Record.
-Press the back arrow on the tablet to return to main screen</t>
-  </si>
-  <si>
-    <t>触摸屏幕右下方的用户配置文件图标
-触摸设置
-触摸维护
-选择校准倾斜
-在EQF1259上按Calibrate
-按开始在平板电脑上开始倾斜校准。 确认显示屏上的倾斜值短暂增加，暂停，然后减小到零
-校准完成后，按下数位板上的后退箭头返回主屏幕“
-Touch the user profile icon on lower right of the screen
-Touch Settings
-Touch Maintainance
-Select Calibrate Incline
-Press Calibrate on EQF1259
-Press Begin on tablet to start incline calibration.  Verify the incline value on the display increases briefly, pauses, then decrease to zero
-When calibration is complete, press the back arrow on the tablet to return to main screen</t>
-  </si>
-  <si>
-    <t>验证平板电脑显示屏是否亮起且没有缺陷
-Verify tablet display is lit and without flaws</t>
   </si>
   <si>
     <t>“在控制台上，按随机快速按钮。
@@ -288,20 +246,6 @@
   <si>
     <t>将EQF1259的USB电缆插入控制台，并确认EQF1259上显示“USB”。
 Plug USB cable from EQF1259 into console and verify "USB" is displayed on the EQF1259.</t>
-  </si>
-  <si>
-    <t>保持脉冲条并确认显示脉冲读数
-Hold the pulse bars and verify a pulse reading is displayed</t>
-  </si>
-  <si>
-    <t>按显示按钮，进入BLE脉冲屏幕。
-按开始按钮。
-在控制台上运行手动锻炼。
-验证在控制台上读取脉冲BLE脉冲。“
-Press Display button to goto BLE Pulse screen.
-Press Start button.
-Run manual workout on the console.
-Verify pulse BLE pulse is read on console.</t>
   </si>
   <si>
     <t>“将3针风扇连接到控制台。
@@ -312,20 +256,6 @@
 On the console, press the Large Fan button to turn fan on. Fan should run on low.
 Press the Large Fan button again and the fan should run on high.
 Press the Small Fan button to turn fan to low, then press again to turn fan off.</t>
-  </si>
-  <si>
-    <t>“将EQW1007连接到iOS音频源，并将EQW1007的另一端连接到控制台。
-播放音频并验证它是否从控制台扬声器播放。
-调整音量到最低和最高水平，并验证一个变化。“
-Connect the EQW1007 to the iOS audio source and connect the other end of the EQW1007 to the console.
-Play audio and verify that it plays out of the console speakers.
-Adjust the volume to minimum and maximum level and verify a change.</t>
-  </si>
-  <si>
-    <t>“将HDMI电缆连接到电视机。
-将HDMI电缆连接到控制台，控制台屏幕和声音将在电视上镜像。“
-Connect the HDMI cable to the TV.
-Connect the HDMI cable to the console and the console screen and sound will be mirrored on the TV.</t>
   </si>
   <si>
     <t>“在EQF1259上，关闭控制台电源。
@@ -985,68 +915,44 @@
       <c r="G2" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AY2" t="s">
         <v>68</v>
       </c>
-      <c r="AP2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>76</v>
-      </c>
       <c r="BA2" s="2" t="n">
-        <v>43143.74092048611</v>
+        <v>43151.7145949537</v>
       </c>
     </row>
   </sheetData>
@@ -1076,114 +982,114 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43143.74086167824</v>
+        <v>43151.71090541666</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Python/PIP_GEN_id-0/Parts - Consoles.csv.xlsx
+++ b/Python/PIP_GEN_id-0/Parts - Consoles.csv.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>RecordID</t>
   </si>
@@ -177,21 +177,31 @@
     <t>Created</t>
   </si>
   <si>
-    <t>387469</t>
-  </si>
-  <si>
-    <t>ETFM39817</t>
+    <t>385843</t>
+  </si>
+  <si>
+    <t>ETNT22116</t>
   </si>
   <si>
     <t>TREADMILL_DEVICE</t>
   </si>
   <si>
-    <t>FENDER_DISPLAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">将电源线连接到EQF1259，将EQW1053的一端连接到EQF1259（CLUB）。注意：请确保您选择与控制台类型相匹配的正确端口。将地线（绿色）连接到E-GND EQF 1259.设置夹具配置：使用PC，在控制台名称（例如：... RNDFtp \ EBNT02117 \ Procedure）下载入RNDftp中的.xml配置文件到microSD卡，将microSD卡正面朝上插入microSD打开灯具背面的RESET按钮，使用UP和DOWN按钮找到合适的配置文件，按ENTER键选择配置文件（屏幕1），等待5秒钟，屏幕稳定后设置灯具脉冲：按下EQF1259 2x上的显示按下此灯具上的开始使用上下按钮设置一个随机脉冲，按下灯具上的开始，按下显示一次。
+    <t>NO_DISPLAY</t>
+  </si>
+  <si>
+    <t>“EQF1259控制台夹具
+PC w /访问RNDftp
+MicroSD卡“
+EQW1001; 8针线束
+EQF1259 Console Fixture
+PC w/ Access to RNDftp
+MicroSD Card
+EQW1001; 8-pin harness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“将电源线连接到EQF1259，将EQW1001的一端连接到EQF1259（TRED1）。注意：请确保您选择与控制台类型相匹配的正确端口。将地线（绿色）连接到E-GND EQF 1259.设置夹具配置：使用PC，在控制台名称（例如：... RNDFtp \ EBNT02117 \ Procedure）下载入RNDftp中的.xml配置文件到microSD卡，将microSD卡正面朝上插入microSD打开灯具背面的RESET按钮，使用UP和DOWN按钮找到合适的配置文件，按ENTER键选择配置文件（屏幕1），等待5秒钟，屏幕稳定后设置灯具脉冲：按下EQF1259 2x上的显示按下此灯具上的开始使用上下按钮设置一个随机脉冲，按下灯具上的开始，按下显示一次。
 Connect the power cord to the EQF1259. 
-Connect one end of the EQW1053 to EQF1259 (CLUB). NOTE: MAKE SURE YOU SELECT THE CORRECT PORT THAT MATCH THE TYPE OF THE CONSOLE.   
+Connect one end of the EQW1001 to EQF1259 (TRED1). NOTE: MAKE SURE YOU SELECT THE CORRECT PORT THAT MATCH THE TYPE OF THE CONSOLE.   
 Connect the ground wire (Green) to E-GND on EQF 1259. 
 Set Fixture Configurations:
 Using PC, load .xml configuration file, which is found in the RNDftp under the console name (Example: …RNDFtp\EBNT02117\Procedure) to the microSD card.
@@ -217,19 +227,51 @@
 Verify that the General Warning is printed on the console or pulse bar.</t>
   </si>
   <si>
-    <t xml:space="preserve">“确保设备包装在防静电袋中，目视检查控制台是否有化妆品缺陷，物理损坏和不清晰的打印。
+    <t>检查控制台是否与图片一致如果数位板倾斜，验证倾斜是否平稳移动，保持位置，并旋转全程。
 Ensure the unit is packaged in an antistatic bag. 
 Visually inspect the console for cosmetic defects, physical damage, and illegible printing.  
 Verify console matches picture
-</t>
-  </si>
-  <si>
-    <t>将14针MTA连接到控制台。在EQF1259上，打开控制台电源开关。
-Connect the 14-pin MTA to console. On the EQF1259, turn on the Console power switch.</t>
+If tablet has tilt, verify tilt  is smooth moving, holds position, and rotates through full range.</t>
+  </si>
+  <si>
+    <t>将8针MTA连接到控制台。在EQF1259上，打开控制台电源开关。
+Connect the 8-pin MTA to console. On the EQF1259, turn on the Console power switch.</t>
   </si>
   <si>
     <t>将死者的钥匙插入控制台。
 Insert Dead Man Key into console.</t>
+  </si>
+  <si>
+    <t>触摸屏幕右下方的用户个人资料图标
+触摸设置
+触摸“设备信息”，然后点击“应用程序信息”。 这将显示应用程序版本和Brainboard版本。
+验证和记录。
+按下数位板上的后退箭头返回到主屏幕
+Touch user profile icon at the lower right  of the screen
+Touch settings
+Touch “Equipment Info” and then “App Info”. This will display App version and Brainboard version.
+Verify and Record.
+Press the back arrow on the tablet to return to main screen</t>
+  </si>
+  <si>
+    <t>触摸屏幕右下方的用户配置文件图标
+触摸设置
+触摸维护
+选择校准倾斜
+在EQF1259上按Calibrate
+按开始在平板电脑上开始倾斜校准。 确认显示屏上的倾斜值短暂增加，暂停，然后减小到零
+校准完成后，按下数位板上的后退箭头返回主屏幕“
+Touch the user profile icon on lower right of the screen
+Touch Settings
+Touch Maintainance
+Select Calibrate Incline
+Press Calibrate on EQF1259
+Press Begin on tablet to start incline calibration.  Verify the incline value on the display increases briefly, pauses, then decrease to zero
+When calibration is complete, press the back arrow on the tablet to return to main screen</t>
+  </si>
+  <si>
+    <t>验证平板电脑显示屏是否亮起且没有缺陷
+Verify tablet display is lit and without flaws</t>
   </si>
   <si>
     <t>“在控制台上，按随机快速按钮。
@@ -246,6 +288,20 @@
   <si>
     <t>将EQF1259的USB电缆插入控制台，并确认EQF1259上显示“USB”。
 Plug USB cable from EQF1259 into console and verify "USB" is displayed on the EQF1259.</t>
+  </si>
+  <si>
+    <t>保持脉冲条并确认显示脉冲读数
+Hold the pulse bars and verify a pulse reading is displayed</t>
+  </si>
+  <si>
+    <t>按显示按钮，进入BLE脉冲屏幕。
+按开始按钮。
+在控制台上运行手动锻炼。
+验证在控制台上读取脉冲BLE脉冲。“
+Press Display button to goto BLE Pulse screen.
+Press Start button.
+Run manual workout on the console.
+Verify pulse BLE pulse is read on console.</t>
   </si>
   <si>
     <t>“将3针风扇连接到控制台。
@@ -258,6 +314,20 @@
 Press the Small Fan button to turn fan to low, then press again to turn fan off.</t>
   </si>
   <si>
+    <t>“将EQW1007连接到iOS音频源，并将EQW1007的另一端连接到控制台。
+播放音频并验证它是否从控制台扬声器播放。
+调整音量到最低和最高水平，并验证一个变化。“
+Connect the EQW1007 to the iOS audio source and connect the other end of the EQW1007 to the console.
+Play audio and verify that it plays out of the console speakers.
+Adjust the volume to minimum and maximum level and verify a change.</t>
+  </si>
+  <si>
+    <t>“将HDMI电缆连接到电视机。
+将HDMI电缆连接到控制台，控制台屏幕和声音将在电视上镜像。“
+Connect the HDMI cable to the TV.
+Connect the HDMI cable to the console and the console screen and sound will be mirrored on the TV.</t>
+  </si>
+  <si>
     <t>“在EQF1259上，关闭控制台电源。
 断开控制台上的所有电线和电缆。“
 On the EQF1259, turn off the Console power.
@@ -276,16 +346,19 @@
     <t>From chaos, springs new beginnings!</t>
   </si>
   <si>
+    <t>LOKI</t>
+  </si>
+  <si>
+    <t>REV 1</t>
+  </si>
+  <si>
+    <t>20171205</t>
+  </si>
+  <si>
+    <t>Created arrays for variables</t>
+  </si>
+  <si>
     <t>id-0</t>
-  </si>
-  <si>
-    <t>REV 1</t>
-  </si>
-  <si>
-    <t>20171205</t>
-  </si>
-  <si>
-    <t>Created arrays for variables</t>
   </si>
   <si>
     <t>REV 2</t>
@@ -915,44 +988,68 @@
       <c r="G2" t="s">
         <v>56</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AY2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="BA2" s="2" t="n">
-        <v>43151.7145949537</v>
+        <v>43153.48585454861</v>
       </c>
     </row>
   </sheetData>
@@ -982,114 +1079,114 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
         <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43151.71090541666</v>
+        <v>43153.48395670139</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Python/PIP_GEN_id-0/Parts - Consoles.csv.xlsx
+++ b/Python/PIP_GEN_id-0/Parts - Consoles.csv.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>RecordID</t>
   </si>
@@ -177,31 +177,21 @@
     <t>Created</t>
   </si>
   <si>
-    <t>385843</t>
-  </si>
-  <si>
-    <t>ETNT22116</t>
+    <t>387469</t>
+  </si>
+  <si>
+    <t>ETFM39817</t>
   </si>
   <si>
     <t>TREADMILL_DEVICE</t>
   </si>
   <si>
-    <t>NO_DISPLAY</t>
-  </si>
-  <si>
-    <t>“EQF1259控制台夹具
-PC w /访问RNDftp
-MicroSD卡“
-EQW1001; 8针线束
-EQF1259 Console Fixture
-PC w/ Access to RNDftp
-MicroSD Card
-EQW1001; 8-pin harness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“将电源线连接到EQF1259，将EQW1001的一端连接到EQF1259（TRED1）。注意：请确保您选择与控制台类型相匹配的正确端口。将地线（绿色）连接到E-GND EQF 1259.设置夹具配置：使用PC，在控制台名称（例如：... RNDFtp \ EBNT02117 \ Procedure）下载入RNDftp中的.xml配置文件到microSD卡，将microSD卡正面朝上插入microSD打开灯具背面的RESET按钮，使用UP和DOWN按钮找到合适的配置文件，按ENTER键选择配置文件（屏幕1），等待5秒钟，屏幕稳定后设置灯具脉冲：按下EQF1259 2x上的显示按下此灯具上的开始使用上下按钮设置一个随机脉冲，按下灯具上的开始，按下显示一次。
+    <t>FENDER_DISPLAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">将电源线连接到EQF1259，将EQW1053的一端连接到EQF1259（CLUB）。注意：请确保您选择与控制台类型相匹配的正确端口。将地线（绿色）连接到E-GND EQF 1259.设置夹具配置：使用PC，在控制台名称（例如：... RNDFtp \ EBNT02117 \ Procedure）下载入RNDftp中的.xml配置文件到microSD卡，将microSD卡正面朝上插入microSD打开灯具背面的RESET按钮，使用UP和DOWN按钮找到合适的配置文件，按ENTER键选择配置文件（屏幕1），等待5秒钟，屏幕稳定后设置灯具脉冲：按下EQF1259 2x上的显示按下此灯具上的开始使用上下按钮设置一个随机脉冲，按下灯具上的开始，按下显示一次。
 Connect the power cord to the EQF1259. 
-Connect one end of the EQW1001 to EQF1259 (TRED1). NOTE: MAKE SURE YOU SELECT THE CORRECT PORT THAT MATCH THE TYPE OF THE CONSOLE.   
+Connect one end of the EQW1053 to EQF1259 (CLUB). NOTE: MAKE SURE YOU SELECT THE CORRECT PORT THAT MATCH THE TYPE OF THE CONSOLE.   
 Connect the ground wire (Green) to E-GND on EQF 1259. 
 Set Fixture Configurations:
 Using PC, load .xml configuration file, which is found in the RNDftp under the console name (Example: …RNDFtp\EBNT02117\Procedure) to the microSD card.
@@ -227,51 +217,67 @@
 Verify that the General Warning is printed on the console or pulse bar.</t>
   </si>
   <si>
-    <t>检查控制台是否与图片一致如果数位板倾斜，验证倾斜是否平稳移动，保持位置，并旋转全程。
+    <t xml:space="preserve">“确保设备包装在防静电袋中，目视检查控制台是否有化妆品缺陷，物理损坏和不清晰的打印。
 Ensure the unit is packaged in an antistatic bag. 
 Visually inspect the console for cosmetic defects, physical damage, and illegible printing.  
 Verify console matches picture
-If tablet has tilt, verify tilt  is smooth moving, holds position, and rotates through full range.</t>
-  </si>
-  <si>
-    <t>将8针MTA连接到控制台。在EQF1259上，打开控制台电源开关。
-Connect the 8-pin MTA to console. On the EQF1259, turn on the Console power switch.</t>
+</t>
+  </si>
+  <si>
+    <t>将14针MTA连接到控制台。在EQF1259上，打开控制台电源开关。
+Connect the 14-pin MTA to console. On the EQF1259, turn on the Console power switch.</t>
   </si>
   <si>
     <t>将死者的钥匙插入控制台。
 Insert Dead Man Key into console.</t>
   </si>
   <si>
-    <t>触摸屏幕右下方的用户个人资料图标
-触摸设置
-触摸“设备信息”，然后点击“应用程序信息”。 这将显示应用程序版本和Brainboard版本。
-验证和记录。
-按下数位板上的后退箭头返回到主屏幕
-Touch user profile icon at the lower right  of the screen
-Touch settings
-Touch “Equipment Info” and then “App Info”. This will display App version and Brainboard version.
-Verify and Record.
-Press the back arrow on the tablet to return to main screen</t>
-  </si>
-  <si>
-    <t>触摸屏幕右下方的用户配置文件图标
-触摸设置
-触摸维护
-选择校准倾斜
-在EQF1259上按Calibrate
-按开始在平板电脑上开始倾斜校准。 确认显示屏上的倾斜值短暂增加，暂停，然后减小到零
-校准完成后，按下数位板上的后退箭头返回主屏幕“
-Touch the user profile icon on lower right of the screen
-Touch Settings
-Touch Maintainance
-Select Calibrate Incline
-Press Calibrate on EQF1259
-Press Begin on tablet to start incline calibration.  Verify the incline value on the display increases briefly, pauses, then decrease to zero
-When calibration is complete, press the back arrow on the tablet to return to main screen</t>
-  </si>
-  <si>
-    <t>验证平板电脑显示屏是否亮起且没有缺陷
-Verify tablet display is lit and without flaws</t>
+    <t xml:space="preserve">“在插入SAFETY键时按下STOP按钮。
+按三次STOP键查看软件。
+验证并记录显示在屏幕上的软件版本V80.262或更高版本。
+按SPEED ^按钮确认并记录OLY 73屏幕上显示的OLYMPUS开发板软件版本。
+按SPEED ^按钮验证并记录显示在屏幕上的Wahoo板软件版本，W 1.13.1。
+按SPEED ^按钮以验证并记录屏幕上显示的Bootloader软件版本，3.1.4.5。
+按SPEED ^按钮确认并记录屏幕上显示的USB软件版本USB22。
+按SPEED ^按钮以验证屏幕上显示的序列号。 它应该与序列号标签上的序列号相同。
+拉安全钥匙返回到欢迎光临橙色理论屏幕。“
+Press the STOP button while inserting the SAFETY Key.
+Press STOP three times to view software.
+Verify and record the software version V80.262 or greater showing on the screen.
+Press SPEED ^ button to verify and record the OLYMPUS board software version showing on the screen, OLY 73. 
+Press SPEED ^ button to verify and record the Wahoo board software version showing on the screen, W 1.13.1. 
+Press SPEED ^ button to verify and record the Bootloader software version showing on the screen, 3.1.4.5.
+Press SPEED ^ button to verify and record the USB software version showing on the screen, USB22.
+Press SPEED ^ button to verify the Serial Number showing on the screen. It should be the same as the serial number on the serial number sticker. 
+Pull safety key to return to the WELCOME TO ORANGE THEORY screen.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">插入SAFETY键时按STOP按钮。
+按停止，屏幕将显示“按下或按下校准”。
+按INCLINE ^校准斜面。
+拉安全钥匙返回到欢迎光临橙色理论屏幕。
+Press the STOP button while inserting the SAFETY Key.
+Press STOP, the screen will show “PRESS INCLINE UP OR DOWN TO CALIBRATE”.
+Press the INCLINE ^ to calibrate the incline. 
+Pull safety key to return to the WELCOME TO ORANGE THEORY screen.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“在插入SAFETY键时按下STOP按钮。
+按STOP两次，看到屏幕上显示的“OTF SYNC”。
+OTF SYNC LED将打开，然后所有其他LED将打开和关闭。 使用SPEED ^使此过程更快。
+拉安全钥匙返回到欢迎光临橙色理论屏幕。“
+Press the STOP button while inserting the SAFETY Key.
+Press STOP two times to see the “OTF SYNC” showing on the screen.
+OTF SYNC LED will turn on, and then all the other LED will turn on and off. Use SPEED ^ to make this process quicker.
+Pull safety key to return to the WELCOME TO ORANGE THEORY screen.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“插入SAFETY键时按STOP按钮，确认语言为英文，使用SPEED ^改变英文和公制之间的语言。
+按下停止按钮六次，然后按下所有其他按钮，以验证屏幕上显示的联合密钥代码。 注意：每个按钮应显示一个唯一的代码。 如果没有，或者按下按钮难以获得显示，则拒绝控制台。
+拉安全钥匙返回到欢迎光临橙色理论屏幕。“
+Press the STOP button while inserting the SAFETY Key. Verify the language is ENGLISH. Use SPEED ^ to change the language between ENGLISH and METRIC. 
+Press the STOP button six times and then all the other buttons to verify the union Keycode showing on the screen. NOTE: Every button should display a unique code. If it does not or it is difficult to get a display from the button press, reject console.
+Pull safety key to return to the WELCOME TO ORANGE THEORY screen.  </t>
   </si>
   <si>
     <t>“在控制台上，按随机快速按钮。
@@ -288,20 +294,6 @@
   <si>
     <t>将EQF1259的USB电缆插入控制台，并确认EQF1259上显示“USB”。
 Plug USB cable from EQF1259 into console and verify "USB" is displayed on the EQF1259.</t>
-  </si>
-  <si>
-    <t>保持脉冲条并确认显示脉冲读数
-Hold the pulse bars and verify a pulse reading is displayed</t>
-  </si>
-  <si>
-    <t>按显示按钮，进入BLE脉冲屏幕。
-按开始按钮。
-在控制台上运行手动锻炼。
-验证在控制台上读取脉冲BLE脉冲。“
-Press Display button to goto BLE Pulse screen.
-Press Start button.
-Run manual workout on the console.
-Verify pulse BLE pulse is read on console.</t>
   </si>
   <si>
     <t>“将3针风扇连接到控制台。
@@ -312,20 +304,6 @@
 On the console, press the Large Fan button to turn fan on. Fan should run on low.
 Press the Large Fan button again and the fan should run on high.
 Press the Small Fan button to turn fan to low, then press again to turn fan off.</t>
-  </si>
-  <si>
-    <t>“将EQW1007连接到iOS音频源，并将EQW1007的另一端连接到控制台。
-播放音频并验证它是否从控制台扬声器播放。
-调整音量到最低和最高水平，并验证一个变化。“
-Connect the EQW1007 to the iOS audio source and connect the other end of the EQW1007 to the console.
-Play audio and verify that it plays out of the console speakers.
-Adjust the volume to minimum and maximum level and verify a change.</t>
-  </si>
-  <si>
-    <t>“将HDMI电缆连接到电视机。
-将HDMI电缆连接到控制台，控制台屏幕和声音将在电视上镜像。“
-Connect the HDMI cable to the TV.
-Connect the HDMI cable to the console and the console screen and sound will be mirrored on the TV.</t>
   </si>
   <si>
     <t>“在EQF1259上，关闭控制台电源。
@@ -988,34 +966,34 @@
       <c r="G2" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>66</v>
       </c>
       <c r="AL2" s="1" t="s">
@@ -1027,29 +1005,17 @@
       <c r="AP2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AY2" t="s">
         <v>72</v>
       </c>
-      <c r="AT2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>76</v>
-      </c>
       <c r="BA2" s="2" t="n">
-        <v>43153.48585454861</v>
+        <v>43153.5546546875</v>
       </c>
     </row>
   </sheetData>
@@ -1079,114 +1045,114 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43153.48395670139</v>
+        <v>43153.55438587963</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Python/PIP_GEN_id-0/Parts - Consoles.csv.xlsx
+++ b/Python/PIP_GEN_id-0/Parts - Consoles.csv.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>RecordID</t>
   </si>
@@ -177,22 +177,21 @@
     <t>Created</t>
   </si>
   <si>
-    <t>387469</t>
-  </si>
-  <si>
-    <t>ETFM39817</t>
-  </si>
-  <si>
-    <t>TREADMILL_DEVICE</t>
-  </si>
-  <si>
-    <t>FENDER_DISPLAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">将电源线连接到EQF1259，将EQW1053的一端连接到EQF1259（CLUB）。注意：请确保您选择与控制台类型相匹配的正确端口。将地线（绿色）连接到E-GND EQF 1259.设置夹具配置：使用PC，在控制台名称（例如：... RNDFtp \ EBNT02117 \ Procedure）下载入RNDftp中的.xml配置文件到microSD卡，将microSD卡正面朝上插入microSD打开灯具背面的RESET按钮，使用UP和DOWN按钮找到合适的配置文件，按ENTER键选择配置文件（屏幕1），等待5秒钟，屏幕稳定后设置灯具脉冲：按下EQF1259 2x上的显示按下此灯具上的开始使用上下按钮设置一个随机脉冲，按下灯具上的开始，按下显示一次。
+    <t>394676</t>
+  </si>
+  <si>
+    <t>EBPF15917</t>
+  </si>
+  <si>
+    <t>EXERCISE_BIKE_DEVICE</t>
+  </si>
+  <si>
+    <t>CD_DISPLAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“将电源线连接到EQF1259，将EQW1139的一端连接到EQF1259（BIKE1）。注意：请确保您选择了与控制台类型相匹配的正确端口设置灯具配置：使用PC，载入.xml配置文件，在控制台名称（例如：... RNDFtp \ EBNT02117 \ Procedure）中的RNDftp中找到microSD卡，将microSD卡正面朝上插入microSD卡插槽中，打开灯具背面的RESET按钮。使用UP和DOWN按钮找到合适的配置文件，按ENTER键选择配置文件（屏幕1），等待5秒钟，如下图所示稳定屏幕设置灯具脉冲：按下EQF1259 2x上的显示按开始在这个灯具上使用向上和向下按钮，设置一个随机脉冲，按下灯具上的开始，按一次显示。
 Connect the power cord to the EQF1259. 
-Connect one end of the EQW1053 to EQF1259 (CLUB). NOTE: MAKE SURE YOU SELECT THE CORRECT PORT THAT MATCH THE TYPE OF THE CONSOLE.   
-Connect the ground wire (Green) to E-GND on EQF 1259. 
+Connect one end of the EQW1139 to EQF1259 (BIKE1). NOTE: MAKE SURE YOU SELECT THE CORRECT PORT THAT MATCH THE TYPE OF THE CONSOLE.   
 Set Fixture Configurations:
 Using PC, load .xml configuration file, which is found in the RNDftp under the console name (Example: …RNDFtp\EBNT02117\Procedure) to the microSD card.
 Insert the microSD card face up into the microSD card slot.
@@ -213,10 +212,6 @@
 Verify that the ESD bag is dissipative and it is printed on as per the drawing.</t>
   </si>
   <si>
-    <t>验证是否在控制台或脉冲条上打印了常规警告。
-Verify that the General Warning is printed on the console or pulse bar.</t>
-  </si>
-  <si>
     <t xml:space="preserve">“确保设备包装在防静电袋中，目视检查控制台是否有化妆品缺陷，物理损坏和不清晰的打印。
 Ensure the unit is packaged in an antistatic bag. 
 Visually inspect the console for cosmetic defects, physical damage, and illegible printing.  
@@ -224,83 +219,75 @@
 </t>
   </si>
   <si>
-    <t>将14针MTA连接到控制台。在EQF1259上，打开控制台电源开关。
-Connect the 14-pin MTA to console. On the EQF1259, turn on the Console power switch.</t>
-  </si>
-  <si>
-    <t>将死者的钥匙插入控制台。
-Insert Dead Man Key into console.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“在插入SAFETY键时按下STOP按钮。
-按三次STOP键查看软件。
-验证并记录显示在屏幕上的软件版本V80.262或更高版本。
-按SPEED ^按钮确认并记录OLY 73屏幕上显示的OLYMPUS开发板软件版本。
-按SPEED ^按钮验证并记录显示在屏幕上的Wahoo板软件版本，W 1.13.1。
-按SPEED ^按钮以验证并记录屏幕上显示的Bootloader软件版本，3.1.4.5。
-按SPEED ^按钮确认并记录屏幕上显示的USB软件版本USB22。
-按SPEED ^按钮以验证屏幕上显示的序列号。 它应该与序列号标签上的序列号相同。
-拉安全钥匙返回到欢迎光临橙色理论屏幕。“
-Press the STOP button while inserting the SAFETY Key.
-Press STOP three times to view software.
-Verify and record the software version V80.262 or greater showing on the screen.
-Press SPEED ^ button to verify and record the OLYMPUS board software version showing on the screen, OLY 73. 
-Press SPEED ^ button to verify and record the Wahoo board software version showing on the screen, W 1.13.1. 
-Press SPEED ^ button to verify and record the Bootloader software version showing on the screen, 3.1.4.5.
-Press SPEED ^ button to verify and record the USB software version showing on the screen, USB22.
-Press SPEED ^ button to verify the Serial Number showing on the screen. It should be the same as the serial number on the serial number sticker. 
-Pull safety key to return to the WELCOME TO ORANGE THEORY screen.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">插入SAFETY键时按STOP按钮。
-按停止，屏幕将显示“按下或按下校准”。
-按INCLINE ^校准斜面。
-拉安全钥匙返回到欢迎光临橙色理论屏幕。
-Press the STOP button while inserting the SAFETY Key.
-Press STOP, the screen will show “PRESS INCLINE UP OR DOWN TO CALIBRATE”.
-Press the INCLINE ^ to calibrate the incline. 
-Pull safety key to return to the WELCOME TO ORANGE THEORY screen.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“在插入SAFETY键时按下STOP按钮。
-按STOP两次，看到屏幕上显示的“OTF SYNC”。
-OTF SYNC LED将打开，然后所有其他LED将打开和关闭。 使用SPEED ^使此过程更快。
-拉安全钥匙返回到欢迎光临橙色理论屏幕。“
-Press the STOP button while inserting the SAFETY Key.
-Press STOP two times to see the “OTF SYNC” showing on the screen.
-OTF SYNC LED will turn on, and then all the other LED will turn on and off. Use SPEED ^ to make this process quicker.
-Pull safety key to return to the WELCOME TO ORANGE THEORY screen.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“插入SAFETY键时按STOP按钮，确认语言为英文，使用SPEED ^改变英文和公制之间的语言。
-按下停止按钮六次，然后按下所有其他按钮，以验证屏幕上显示的联合密钥代码。 注意：每个按钮应显示一个唯一的代码。 如果没有，或者按下按钮难以获得显示，则拒绝控制台。
-拉安全钥匙返回到欢迎光临橙色理论屏幕。“
-Press the STOP button while inserting the SAFETY Key. Verify the language is ENGLISH. Use SPEED ^ to change the language between ENGLISH and METRIC. 
-Press the STOP button six times and then all the other buttons to verify the union Keycode showing on the screen. NOTE: Every button should display a unique code. If it does not or it is difficult to get a display from the button press, reject console.
-Pull safety key to return to the WELCOME TO ORANGE THEORY screen.  </t>
-  </si>
-  <si>
-    <t>“在控制台上，按随机快速按钮。
-验证控制台上的速度和EQF1259匹配。“
-On the console, press random Quick speed buttons.
-Verify that the Speed on the console and EQF1259 match.</t>
-  </si>
-  <si>
-    <t>“在控制台上，按随机快速倾斜按钮。
-验证控制台上的倾斜和EQF1259匹配。“
-On the console, press random Quick incline buttons.
-Verify that the Incline on the console and EQF1259 match.</t>
-  </si>
-  <si>
-    <t>将EQF1259的USB电缆插入控制台，并确认EQF1259上显示“USB”。
-Plug USB cable from EQF1259 into console and verify "USB" is displayed on the EQF1259.</t>
-  </si>
-  <si>
-    <t>“将3针风扇连接到控制台。
-在控制台上，按大风扇按钮打开风扇。 球迷应该跑低。
+    <t>将10针MTA连接到控制台。在EQF1259上，打开控制台电源开关。
+Connect the 10-pin MTA to console. On the EQF1259, turn on the Console power switch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“按iFIT同步按钮，在显示屏中间验证一个4字符的十六进制（例如：”DF69“）。点击平板电脑屏幕右上方的蓝牙图标在弹出的窗口中，点击您的机器选择并验证信号点击“确定”，平板显示器右上方的蓝牙图标将闪烁，然后变为蓝色，控制台将显示连接指示灯，点击右上角的蓝牙图标平板电脑屏幕和“UNPAIR”控制台。
+Press the iFIT sync button and verify a 4 character Hex in the middle of the display (Example: “DF69”). 
+Tap the Bluetooth icon on the top right of tablet screen
+In the pop up window, tap your machine choice and verify signal strength at 0.5m is (&gt;50%)
+Tap “OKAY”. The Bluetooth icon in the upper right of the tablet display will blink and then go solid blue. The console will show connection indicator.
+Tap the Bluetooth icon on the upper right on tablet screen and “UNPAIR” the console.
+</t>
+  </si>
+  <si>
+    <t>“按”“手动”“或”“显示”“按钮
+验证和记录“。
+Press the "MANUAL" or "DISPLAY"  button
+Verify and Record.</t>
+  </si>
+  <si>
+    <t>“按”“手动”“或”“显示”“按钮
+按两次INTRVL APPS按钮
+按下音量两次清除并填充所有段
+确认没有任何LCD段应该是暗淡的，丢失，重影，发光或熄灭。“
+Press the "MANUAL" or "DISPLAY"  button
+Press the INTRVL APPS button two times
+Press Volume down two times to clear and fill all segments
+Verify that there are no LCD segments should be dim, missing, ghosting, aglow, or out.</t>
+  </si>
+  <si>
+    <t>“按”“手动”“或”“显示”“按钮
+按下INTRVL APPS按钮三次
+按控制台上的所有按钮，每个按钮都将显示一个唯一的代码
+按INTRVL APPS按钮返回主屏幕“
+Press the "MANUAL" or "DISPLAY"  button
+Press the INTRVL APPS button three times
+Press all the buttons on the console and each will display a unique code
+Press the INTRVL APPS button to  return to main screen</t>
+  </si>
+  <si>
+    <t>“在EQF1259上按START（开始）。
+验证控制台上的Cadence（RPM）和EQF1259匹配。“
+On the EQF1259, Press START.
+Verify that the Cadence(RPM) on the console and the EQF1259 match.</t>
+  </si>
+  <si>
+    <t>“在控制台上，按下RESISTANCE +按钮，确认EQF1259的电阻值增加。
+在控制台上，按RESISTANCE - 按钮。 验证EQF1259的电阻值是否下降。“
+On the console, press the RESISTANCE + button. Verify the resistance level on the EQF1259 increases.  
+On the console, press the RESISTANCE - button. Verify the resistance level on the EQF1259 decreases.</t>
+  </si>
+  <si>
+    <t>保持脉冲条并确认显示脉冲读数
+Hold the pulse bars and verify a pulse reading is displayed</t>
+  </si>
+  <si>
+    <t>按显示按钮转到BLE脉冲屏幕。
+按开始按钮。
+点击控制台上的IFIT同步按钮。
+验证在控制台上读取脉冲BLE脉冲。
+Press Display button to goto BLE Pulse screen.
+Press Start button.
+Run manual workout on the console.
+Tap the IFIT sync button on the console.
+Verify pulse BLE pulse is read on console.</t>
+  </si>
+  <si>
+    <t>“在控制台上，按大风扇按钮打开风扇，风扇应该低速运行。
 再次按大风扇按钮，风扇应该运行在高位。
 按小风扇按钮将风扇转到低位，然后再次按下以关闭风扇。“
-Connect the 3-pin fans to the console.
 On the console, press the Large Fan button to turn fan on. Fan should run on low.
 Press the Large Fan button again and the fan should run on high.
 Press the Small Fan button to turn fan to low, then press again to turn fan off.</t>
@@ -972,50 +959,48 @@
       <c r="S2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AG2" s="1" t="s"/>
+      <c r="AH2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AY2" t="s">
         <v>71</v>
       </c>
-      <c r="AY2" t="s">
-        <v>72</v>
-      </c>
       <c r="BA2" s="2" t="n">
-        <v>43153.5546546875</v>
+        <v>43153.71941677084</v>
       </c>
     </row>
   </sheetData>
@@ -1045,114 +1030,114 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>75</v>
-      </c>
-      <c r="D1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" t="s">
-        <v>83</v>
-      </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
         <v>84</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>85</v>
       </c>
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
         <v>87</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>88</v>
       </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
         <v>90</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>91</v>
       </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
         <v>93</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>43153.71874039352</v>
+      </c>
+      <c r="C8" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>43153.55438587963</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
